--- a/Data/Forecasts/IDA2/2023-12-05_exo['y_DA'].xlsx
+++ b/Data/Forecasts/IDA2/2023-12-05_exo['y_DA'].xlsx
@@ -454,7 +454,7 @@
         <v>45265.45833333334</v>
       </c>
       <c r="B2" t="n">
-        <v>200.3884582519531</v>
+        <v>199.6580963134766</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>45265.47916666666</v>
       </c>
       <c r="B3" t="n">
-        <v>196.5059661865234</v>
+        <v>198.0741424560547</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>45265.5</v>
       </c>
       <c r="B4" t="n">
-        <v>181.2688446044922</v>
+        <v>187.6286163330078</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>45265.52083333334</v>
       </c>
       <c r="B5" t="n">
-        <v>178.2443084716797</v>
+        <v>188.0948181152344</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>45265.54166666666</v>
       </c>
       <c r="B6" t="n">
-        <v>171.9139404296875</v>
+        <v>186.2721710205078</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>45265.5625</v>
       </c>
       <c r="B7" t="n">
-        <v>163.8010101318359</v>
+        <v>180.1475067138672</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>45265.58333333334</v>
       </c>
       <c r="B8" t="n">
-        <v>164.6628265380859</v>
+        <v>174.4728851318359</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>45265.60416666666</v>
       </c>
       <c r="B9" t="n">
-        <v>161.1917572021484</v>
+        <v>177.1927032470703</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>45265.625</v>
       </c>
       <c r="B10" t="n">
-        <v>177.3720855712891</v>
+        <v>188.7744293212891</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>45265.64583333334</v>
       </c>
       <c r="B11" t="n">
-        <v>199.4816284179688</v>
+        <v>204.4593200683594</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>45265.66666666666</v>
       </c>
       <c r="B12" t="n">
-        <v>204.2559204101562</v>
+        <v>203.9915618896484</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>45265.6875</v>
       </c>
       <c r="B13" t="n">
-        <v>221.1069793701172</v>
+        <v>226.1586761474609</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>45265.70833333334</v>
       </c>
       <c r="B14" t="n">
-        <v>210.6830902099609</v>
+        <v>226.6010437011719</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>45265.72916666666</v>
       </c>
       <c r="B15" t="n">
-        <v>204.4714508056641</v>
+        <v>222.2899627685547</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>45265.75</v>
       </c>
       <c r="B16" t="n">
-        <v>174.3388824462891</v>
+        <v>190.1591949462891</v>
       </c>
     </row>
     <row r="17">
@@ -574,7 +574,7 @@
         <v>45265.77083333334</v>
       </c>
       <c r="B17" t="n">
-        <v>160.5882263183594</v>
+        <v>175.5337677001953</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>45265.79166666666</v>
       </c>
       <c r="B18" t="n">
-        <v>150.0181121826172</v>
+        <v>164.9937744140625</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>45265.8125</v>
       </c>
       <c r="B19" t="n">
-        <v>136.1858520507812</v>
+        <v>150.3785858154297</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>45265.83333333334</v>
       </c>
       <c r="B20" t="n">
-        <v>121.9575805664062</v>
+        <v>136.6065521240234</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>45265.85416666666</v>
       </c>
       <c r="B21" t="n">
-        <v>103.5281829833984</v>
+        <v>125.0766220092773</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +614,7 @@
         <v>45265.875</v>
       </c>
       <c r="B22" t="n">
-        <v>110.8669204711914</v>
+        <v>127.5506057739258</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>45265.89583333334</v>
       </c>
       <c r="B23" t="n">
-        <v>96.37738800048828</v>
+        <v>113.1779174804688</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>45265.91666666666</v>
       </c>
       <c r="B24" t="n">
-        <v>102.8708801269531</v>
+        <v>114.7959747314453</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>45265.9375</v>
       </c>
       <c r="B25" t="n">
-        <v>95.36322021484375</v>
+        <v>102.3314056396484</v>
       </c>
     </row>
   </sheetData>
